--- a/Organic.xlsx
+++ b/Organic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reyna.feng/Downloads/DICE Revenue Modeler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reyna.feng/Documents/Reyna/Wimo/Games_RevenueModeler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239BB765-20A7-964A-92AE-17D534ED50E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D83A449-6B44-5B4C-A9F8-3F48A77CBCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="440" yWindow="10280" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -468,13 +470,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>45000</v>
+        <v>2150</v>
       </c>
       <c r="D2" s="2">
-        <v>44562</v>
+        <v>44579</v>
       </c>
       <c r="E2" s="2">
-        <v>44568</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -485,13 +487,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>20000</v>
+        <v>1850</v>
       </c>
       <c r="D3" s="2">
-        <v>44562</v>
+        <v>44579</v>
       </c>
       <c r="E3" s="2">
-        <v>44568</v>
+        <v>44585</v>
       </c>
     </row>
   </sheetData>
